--- a/Base_de_Dados_Suécia_1.xlsx
+++ b/Base_de_Dados_Suécia_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02615800-A9A9-4059-84EF-8B1864D70393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABCF9A-DB9A-4243-9253-A5C845545E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3549,11 +3549,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2661"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2624" workbookViewId="0">
+      <selection activeCell="B2661" sqref="B2661"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -88690,6 +88700,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2661">
+    <sortCondition ref="B2:B2661"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>